--- a/Planilha de riscos.xlsx
+++ b/Planilha de riscos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vini\Desktop\pii\PI-1o-semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecsa\Documents\Grupo 05\OneSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DA6DB5-3BBF-4808-BCD7-71EE1A4AE73C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13F9D59-797D-4A7A-B2FD-D81090DB8519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E41AC25-8658-4F32-AECD-C1D043281797}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E41AC25-8658-4F32-AECD-C1D043281797}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -482,168 +482,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B041A7-7910-456A-AB45-5950FAE029F7}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,227 +981,227 @@
   <sheetData>
     <row r="1" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
     </row>
     <row r="3" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="62"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="63"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34"/>
     </row>
     <row r="4" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
+      <c r="G5" s="53"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="25" t="s">
+      <c r="J5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="27"/>
+      <c r="M5" s="36"/>
     </row>
     <row r="6" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="53"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="27"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="7:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="33"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="34">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="15">
         <v>2</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="15">
         <v>1</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="15">
         <f>SUM(I8*J8)</f>
         <v>2</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="38">
+      <c r="G9" s="17">
         <v>2</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="19">
         <v>2</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="19">
         <v>3</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="19">
         <f>SUM(I9*J9)</f>
         <v>6</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="39" t="s">
+      <c r="M9" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="38">
+      <c r="G10" s="17">
         <v>3</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="19">
         <v>2</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="19">
         <v>3</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="19">
         <f>SUM(I10*J10)</f>
         <v>6</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="38">
+      <c r="G11" s="17">
         <v>4</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="19">
         <v>2</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="19">
         <v>3</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="19">
         <f>SUM(I11*J11)</f>
         <v>6</v>
       </c>
-      <c r="L11" s="40" t="s">
+      <c r="L11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M11" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="53">
+      <c r="G12" s="24">
         <v>5</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="26">
         <v>1</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="26">
         <v>3</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="26">
         <f>SUM(I12*J12)</f>
         <v>3</v>
       </c>
-      <c r="L12" s="55"/>
-      <c r="M12" s="54"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25"/>
     </row>
     <row r="13" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="38">
+      <c r="G13" s="17">
         <v>6</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="39"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="7:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="56">
+      <c r="G14" s="27">
         <v>7</v>
       </c>
-      <c r="H14" s="42"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="42"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="7:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="7:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="20" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1212,94 +1212,88 @@
       <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="22">
         <v>6</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="50">
         <v>2</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="56">
         <v>4</v>
       </c>
-      <c r="E19" s="51">
+      <c r="E19" s="57">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="52"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="58"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="50">
         <v>1</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="50">
         <v>2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="59">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="47" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="47"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="48"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="49"/>
     </row>
     <row r="26" spans="2:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="C26:E26"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -1310,7 +1304,13 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Planilha de riscos.xlsx
+++ b/Planilha de riscos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jecsa\Documents\Grupo 05\OneSolutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luscalves\Documents\Bandtec\OneSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13F9D59-797D-4A7A-B2FD-D81090DB8519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2768B4A-67E4-4E45-9AC4-8F564B0901BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E41AC25-8658-4F32-AECD-C1D043281797}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{6E41AC25-8658-4F32-AECD-C1D043281797}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Quebra do sensor</t>
   </si>
@@ -41,24 +41,12 @@
     <t>Erro no arduino</t>
   </si>
   <si>
-    <t>Falta de comprometimento e comunicação</t>
-  </si>
-  <si>
     <t>Falta de infraestutura</t>
   </si>
   <si>
     <t>Impacto</t>
   </si>
   <si>
-    <t>Alto         (3)</t>
-  </si>
-  <si>
-    <t>Baixo     (1)</t>
-  </si>
-  <si>
-    <t>Probabilidade</t>
-  </si>
-  <si>
     <t>Mitigar</t>
   </si>
   <si>
@@ -104,15 +92,6 @@
     <t>Médio (2)</t>
   </si>
   <si>
-    <t>Pouco provável (1)</t>
-  </si>
-  <si>
-    <t>Provável (2)</t>
-  </si>
-  <si>
-    <t>Muito Provável (3)</t>
-  </si>
-  <si>
     <t>Análise de Risco do Projeto</t>
   </si>
   <si>
@@ -123,6 +102,39 @@
   </si>
   <si>
     <t>Conversar e incentivar a continuar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuidado na manipulação e manutenção, e ensinar o cliente como utilizar </t>
+  </si>
+  <si>
+    <t>Reunir-se com o cliente sobre melhorias que ajudem na evolução do projeto.</t>
+  </si>
+  <si>
+    <t>Falta de comprometimento</t>
+  </si>
+  <si>
+    <t>Falha na comunicação com o cliente</t>
+  </si>
+  <si>
+    <t>Sempre atualizar e reunir para mostrar as melhorias e avanços em cada etapa do projeto.</t>
+  </si>
+  <si>
+    <t>Chance</t>
+  </si>
+  <si>
+    <t>Alta (3)</t>
+  </si>
+  <si>
+    <t>Média(2)</t>
+  </si>
+  <si>
+    <t>Baixa (1)</t>
+  </si>
+  <si>
+    <t>Alto (3)</t>
+  </si>
+  <si>
+    <t>Baixo (1)</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,12 +183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,8 +204,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFC7B10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -260,43 +290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -438,15 +431,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -471,28 +455,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,127 +495,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,19 +576,37 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,6 +617,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFC7B10"/>
       <color rgb="FFFF2929"/>
     </mruColors>
   </colors>
@@ -669,7 +633,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -965,353 +929,354 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B041A7-7910-456A-AB45-5950FAE029F7}">
-  <dimension ref="B1:M26"/>
+  <dimension ref="B1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G2" s="29" t="s">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="29"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" ref="F8:F13" si="0">SUM(D8*E8)</f>
+        <v>2</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>3</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>3</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>4</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>3</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <v>5</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="22">
+        <v>1</v>
+      </c>
+      <c r="E12" s="22">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="7:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-    </row>
-    <row r="4" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G4" s="52" t="s">
+      <c r="D13" s="18">
+        <v>3</v>
+      </c>
+      <c r="E13" s="18">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H4" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="53"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="39" t="s">
+      <c r="G13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G6" s="53"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="8" t="s">
+      <c r="H13" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="54">
+        <v>3</v>
+      </c>
+      <c r="F16" s="46">
+        <v>6</v>
+      </c>
+      <c r="G16" s="43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="36"/>
-    </row>
-    <row r="7" spans="7:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="54"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="13">
+      <c r="E17" s="49">
+        <v>2</v>
+      </c>
+      <c r="F17" s="47">
+        <v>4</v>
+      </c>
+      <c r="G17" s="44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="25"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="55">
         <v>1</v>
       </c>
-      <c r="H8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="15">
+      <c r="F19" s="49">
         <v>2</v>
       </c>
-      <c r="J8" s="15">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15">
-        <f>SUM(I8*J8)</f>
-        <v>2</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="G19" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="25"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="53"/>
+    </row>
+    <row r="21" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="17">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>2</v>
-      </c>
-      <c r="J9" s="19">
-        <v>3</v>
-      </c>
-      <c r="K9" s="19">
-        <f>SUM(I9*J9)</f>
-        <v>6</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="18" t="s">
+    <row r="22" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="G22" s="19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="17">
-        <v>3</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="19">
-        <v>2</v>
-      </c>
-      <c r="J10" s="19">
-        <v>3</v>
-      </c>
-      <c r="K10" s="19">
-        <f>SUM(I10*J10)</f>
-        <v>6</v>
-      </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="17">
-        <v>4</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I11" s="19">
-        <v>2</v>
-      </c>
-      <c r="J11" s="19">
-        <v>3</v>
-      </c>
-      <c r="K11" s="19">
-        <f>SUM(I11*J11)</f>
-        <v>6</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G12" s="24">
-        <v>5</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="26">
-        <v>1</v>
-      </c>
-      <c r="J12" s="26">
-        <v>3</v>
-      </c>
-      <c r="K12" s="26">
-        <f>SUM(I12*J12)</f>
-        <v>3</v>
-      </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-    </row>
-    <row r="13" spans="7:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" s="17">
-        <v>6</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="7:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="27">
-        <v>7</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="7:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="7:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="22">
-        <v>6</v>
-      </c>
-      <c r="E18" s="23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="50">
-        <v>2</v>
-      </c>
-      <c r="D19" s="56">
-        <v>4</v>
-      </c>
-      <c r="E19" s="57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="58"/>
-    </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="50">
-        <v>1</v>
-      </c>
-      <c r="D21" s="50">
-        <v>2</v>
-      </c>
-      <c r="E21" s="59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="60"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="48"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="3"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="49"/>
-    </row>
-    <row r="26" spans="2:5" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-      <c r="C26" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-    </row>
+    <row r="23" spans="4:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="4:7" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="G4:G7"/>
+  <mergeCells count="14">
+    <mergeCell ref="B2:H3"/>
     <mergeCell ref="H4:H7"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F19:F20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>